--- a/data/text_data_dummy.xlsx
+++ b/data/text_data_dummy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8e1a904a64e38e/Documents/Oregon/Courses/datascience spec/edld_640/EDLD-640-Capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E93C75D-3F88-46DA-B685-60637B48EB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3E93C75D-3F88-46DA-B685-60637B48EB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CBCE473-4552-412C-8710-4FB4212CFA1D}"/>
   <bookViews>
-    <workbookView xWindow="-36" yWindow="108" windowWidth="13080" windowHeight="10248" xr2:uid="{AC8F5CA5-03B3-48F2-BCAE-1DEDA9FD65F4}"/>
+    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="10560" xr2:uid="{AC8F5CA5-03B3-48F2-BCAE-1DEDA9FD65F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>ai2</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
     <t>squeak</t>
   </si>
   <si>
@@ -1083,6 +1080,9 @@
   </si>
   <si>
     <t>rank</t>
+  </si>
+  <si>
+    <t>funct</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB453C-8855-4FD2-A944-01D7C8226192}">
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="F325" sqref="F325"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1473,10 +1473,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1493,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1513,10 +1513,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1533,10 +1533,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1553,10 +1553,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1573,10 +1573,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1613,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1633,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1653,10 +1653,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -1673,10 +1673,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1693,10 +1693,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1713,10 +1713,10 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1733,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1753,10 +1753,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1773,10 +1773,10 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1793,10 +1793,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1813,10 +1813,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1833,10 +1833,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1853,10 +1853,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1873,10 +1873,10 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1893,10 +1893,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1913,10 +1913,10 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1933,10 +1933,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -1953,10 +1953,10 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1973,10 +1973,10 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1993,10 +1993,10 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -2013,10 +2013,10 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2033,10 +2033,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -2053,10 +2053,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2073,10 +2073,10 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -2093,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -2113,10 +2113,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -2133,10 +2133,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -2153,10 +2153,10 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -2173,10 +2173,10 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -2193,10 +2193,10 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2213,10 +2213,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -2233,10 +2233,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -2253,10 +2253,10 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -2273,10 +2273,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -2293,10 +2293,10 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -2333,10 +2333,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -2353,10 +2353,10 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -2373,10 +2373,10 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2413,10 +2413,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -2433,10 +2433,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F50">
         <v>7</v>
@@ -2453,10 +2453,10 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -2473,10 +2473,10 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -2493,10 +2493,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -2513,10 +2513,10 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -2533,10 +2533,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -2553,10 +2553,10 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -2573,10 +2573,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2593,10 +2593,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2613,10 +2613,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2633,10 +2633,10 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2653,10 +2653,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -2673,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2693,10 +2693,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -2713,10 +2713,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -2733,10 +2733,10 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66">
         <v>5</v>
@@ -2773,10 +2773,10 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -2793,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2813,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -2833,10 +2833,10 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F70">
         <v>3</v>
@@ -2853,10 +2853,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71">
         <v>6</v>
@@ -2873,10 +2873,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72">
         <v>5</v>
@@ -2893,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F73">
         <v>3</v>
@@ -2913,10 +2913,10 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2933,10 +2933,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75">
         <v>5</v>
@@ -2953,10 +2953,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F76">
         <v>4</v>
@@ -2973,10 +2973,10 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2993,10 +2993,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -3013,10 +3013,10 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -3033,10 +3033,10 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3053,10 +3053,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F81">
         <v>7</v>
@@ -3073,10 +3073,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -3093,10 +3093,10 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F83">
         <v>3</v>
@@ -3113,10 +3113,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F84">
         <v>6</v>
@@ -3133,10 +3133,10 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -3153,10 +3153,10 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -3173,10 +3173,10 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3193,10 +3193,10 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3213,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -3233,10 +3233,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -3253,10 +3253,10 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F91">
         <v>5</v>
@@ -3273,10 +3273,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F92">
         <v>5</v>
@@ -3293,10 +3293,10 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -3313,10 +3313,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F94">
         <v>6</v>
@@ -3333,10 +3333,10 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -3353,10 +3353,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F96">
         <v>5</v>
@@ -3373,10 +3373,10 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F97">
         <v>7</v>
@@ -3393,10 +3393,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F98">
         <v>7</v>
@@ -3413,10 +3413,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -3433,10 +3433,10 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F100">
         <v>5</v>
@@ -3453,10 +3453,10 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -3473,10 +3473,10 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3493,10 +3493,10 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -3513,10 +3513,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F104">
         <v>5</v>
@@ -3533,10 +3533,10 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F105">
         <v>3</v>
@@ -3553,10 +3553,10 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -3573,10 +3573,10 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F107">
         <v>6</v>
@@ -3593,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -3613,10 +3613,10 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F109">
         <v>5</v>
@@ -3633,10 +3633,10 @@
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3653,10 +3653,10 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -3673,10 +3673,10 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3693,10 +3693,10 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3713,10 +3713,10 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F114">
         <v>5</v>
@@ -3733,10 +3733,10 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -3753,10 +3753,10 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F116">
         <v>6</v>
@@ -3773,10 +3773,10 @@
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F117">
         <v>5</v>
@@ -3793,10 +3793,10 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F118">
         <v>3</v>
@@ -3813,10 +3813,10 @@
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F119">
         <v>6</v>
@@ -3833,10 +3833,10 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F120">
         <v>5</v>
@@ -3853,10 +3853,10 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3873,10 +3873,10 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -3893,10 +3893,10 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F123">
         <v>6</v>
@@ -3913,10 +3913,10 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F124">
         <v>4</v>
@@ -3933,10 +3933,10 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F125">
         <v>3</v>
@@ -3953,10 +3953,10 @@
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F126">
         <v>6</v>
@@ -3973,10 +3973,10 @@
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F127">
         <v>5</v>
@@ -3993,10 +3993,10 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -4013,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -4033,10 +4033,10 @@
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F130">
         <v>7</v>
@@ -4053,10 +4053,10 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F131">
         <v>6</v>
@@ -4073,10 +4073,10 @@
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F132">
         <v>6</v>
@@ -4093,10 +4093,10 @@
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -4113,10 +4113,10 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -4133,10 +4133,10 @@
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F135">
         <v>5</v>
@@ -4153,10 +4153,10 @@
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -4173,10 +4173,10 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F137">
         <v>3</v>
@@ -4193,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -4213,10 +4213,10 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F139">
         <v>3</v>
@@ -4233,10 +4233,10 @@
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F140">
         <v>6</v>
@@ -4253,10 +4253,10 @@
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -4273,10 +4273,10 @@
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -4293,10 +4293,10 @@
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F143">
         <v>5</v>
@@ -4313,10 +4313,10 @@
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -4333,10 +4333,10 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -4353,10 +4353,10 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F146">
         <v>6</v>
@@ -4373,10 +4373,10 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -4393,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -4413,10 +4413,10 @@
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F149">
         <v>5</v>
@@ -4433,10 +4433,10 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F150">
         <v>5</v>
@@ -4453,10 +4453,10 @@
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -4473,10 +4473,10 @@
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -4493,10 +4493,10 @@
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F153">
         <v>6</v>
@@ -4513,10 +4513,10 @@
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F154">
         <v>4</v>
@@ -4533,10 +4533,10 @@
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4553,10 +4553,10 @@
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4573,10 +4573,10 @@
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F157">
         <v>5</v>
@@ -4593,10 +4593,10 @@
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F158">
         <v>5</v>
@@ -4613,10 +4613,10 @@
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F159">
         <v>5</v>
@@ -4633,10 +4633,10 @@
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E160" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F160">
         <v>3</v>
@@ -4653,10 +4653,10 @@
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F161">
         <v>6</v>
@@ -4673,10 +4673,10 @@
         <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E162" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F162">
         <v>7</v>
@@ -4693,10 +4693,10 @@
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F163">
         <v>5</v>
@@ -4713,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -4733,10 +4733,10 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -4753,10 +4753,10 @@
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F166">
         <v>6</v>
@@ -4773,10 +4773,10 @@
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4793,10 +4793,10 @@
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F168">
         <v>7</v>
@@ -4813,10 +4813,10 @@
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -4833,10 +4833,10 @@
         <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -4853,10 +4853,10 @@
         <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F171">
         <v>6</v>
@@ -4873,10 +4873,10 @@
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F172">
         <v>5</v>
@@ -4893,10 +4893,10 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -4913,10 +4913,10 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4933,10 +4933,10 @@
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F175">
         <v>6</v>
@@ -4953,10 +4953,10 @@
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F176">
         <v>5</v>
@@ -4973,10 +4973,10 @@
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F177">
         <v>3</v>
@@ -4993,10 +4993,10 @@
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -5013,10 +5013,10 @@
         <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F179">
         <v>5</v>
@@ -5033,10 +5033,10 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -5053,10 +5053,10 @@
         <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F181">
         <v>6</v>
@@ -5073,10 +5073,10 @@
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -5093,10 +5093,10 @@
         <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F183">
         <v>5</v>
@@ -5113,10 +5113,10 @@
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F184">
         <v>3</v>
@@ -5133,10 +5133,10 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F185">
         <v>6</v>
@@ -5153,10 +5153,10 @@
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F186">
         <v>7</v>
@@ -5173,10 +5173,10 @@
         <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -5193,10 +5193,10 @@
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F188">
         <v>7</v>
@@ -5213,10 +5213,10 @@
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F189">
         <v>7</v>
@@ -5233,10 +5233,10 @@
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E190" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F190">
         <v>3</v>
@@ -5253,10 +5253,10 @@
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E191" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F191">
         <v>5</v>
@@ -5273,10 +5273,10 @@
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E192" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F192">
         <v>3</v>
@@ -5293,10 +5293,10 @@
         <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E193" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F193">
         <v>6</v>
@@ -5313,10 +5313,10 @@
         <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E194" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F194">
         <v>3</v>
@@ -5333,10 +5333,10 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E195" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F195">
         <v>4</v>
@@ -5353,10 +5353,10 @@
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F196">
         <v>3</v>
@@ -5373,10 +5373,10 @@
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E197" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F197">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E198" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F198">
         <v>6</v>
@@ -5413,10 +5413,10 @@
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E199" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F199">
         <v>3</v>
@@ -5433,10 +5433,10 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F200">
         <v>6</v>
@@ -5453,10 +5453,10 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E201" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F201">
         <v>7</v>
@@ -5473,10 +5473,10 @@
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E202" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -5493,10 +5493,10 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E203" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F203">
         <v>5</v>
@@ -5513,10 +5513,10 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E204" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F204">
         <v>5</v>
@@ -5533,10 +5533,10 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E205" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F205">
         <v>5</v>
@@ -5553,10 +5553,10 @@
         <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E206" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F206">
         <v>3</v>
@@ -5573,10 +5573,10 @@
         <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E207" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F207">
         <v>3</v>
@@ -5593,10 +5593,10 @@
         <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E208" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -5613,10 +5613,10 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F209">
         <v>6</v>
@@ -5633,10 +5633,10 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E210" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F210">
         <v>5</v>
@@ -5653,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E211" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F211">
         <v>4</v>
@@ -5673,10 +5673,10 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E212" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F212">
         <v>7</v>
@@ -5693,10 +5693,10 @@
         <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E213" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -5713,10 +5713,10 @@
         <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E214" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F214">
         <v>3</v>
@@ -5733,10 +5733,10 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E215" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F215">
         <v>6</v>
@@ -5753,10 +5753,10 @@
         <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E216" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F216">
         <v>2</v>
@@ -5773,10 +5773,10 @@
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E217" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F217">
         <v>3</v>
@@ -5793,10 +5793,10 @@
         <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -5813,10 +5813,10 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E219" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F219">
         <v>6</v>
@@ -5833,10 +5833,10 @@
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E220" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F220">
         <v>5</v>
@@ -5853,10 +5853,10 @@
         <v>8</v>
       </c>
       <c r="D221" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E221" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -5873,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E222" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F222">
         <v>2</v>
@@ -5893,10 +5893,10 @@
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F223">
         <v>5</v>
@@ -5913,10 +5913,10 @@
         <v>8</v>
       </c>
       <c r="D224" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E224" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -5933,10 +5933,10 @@
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E225" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F225">
         <v>7</v>
@@ -5953,10 +5953,10 @@
         <v>8</v>
       </c>
       <c r="D226" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E226" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F226">
         <v>3</v>
@@ -5973,10 +5973,10 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E227" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F227">
         <v>6</v>
@@ -5993,10 +5993,10 @@
         <v>8</v>
       </c>
       <c r="D228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E228" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -6013,10 +6013,10 @@
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E229" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F229">
         <v>5</v>
@@ -6033,10 +6033,10 @@
         <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E230" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F230">
         <v>3</v>
@@ -6053,10 +6053,10 @@
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E231" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F231">
         <v>5</v>
@@ -6073,10 +6073,10 @@
         <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E232" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F232">
         <v>3</v>
@@ -6093,10 +6093,10 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E233" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F233">
         <v>5</v>
@@ -6113,10 +6113,10 @@
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E234" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F234">
         <v>6</v>
@@ -6133,10 +6133,10 @@
         <v>8</v>
       </c>
       <c r="D235" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E235" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F235">
         <v>2</v>
@@ -6153,10 +6153,10 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E236" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F236">
         <v>5</v>
@@ -6173,10 +6173,10 @@
         <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E237" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -6193,10 +6193,10 @@
         <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E238" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F238">
         <v>3</v>
@@ -6213,10 +6213,10 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E239" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F239">
         <v>7</v>
@@ -6233,10 +6233,10 @@
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E240" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -6253,10 +6253,10 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E241" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F241">
         <v>5</v>
@@ -6273,10 +6273,10 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E242" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -6293,10 +6293,10 @@
         <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F243">
         <v>3</v>
@@ -6313,10 +6313,10 @@
         <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E244" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F244">
         <v>3</v>
@@ -6333,10 +6333,10 @@
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E245" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F245">
         <v>6</v>
@@ -6353,10 +6353,10 @@
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E246" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F246">
         <v>6</v>
@@ -6373,10 +6373,10 @@
         <v>8</v>
       </c>
       <c r="D247" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E247" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -6393,10 +6393,10 @@
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E248" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F248">
         <v>7</v>
@@ -6413,10 +6413,10 @@
         <v>8</v>
       </c>
       <c r="D249" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E249" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -6433,10 +6433,10 @@
         <v>8</v>
       </c>
       <c r="D250" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E250" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -6453,10 +6453,10 @@
         <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E251" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F251">
         <v>5</v>
@@ -6473,10 +6473,10 @@
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E252" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F252">
         <v>6</v>
@@ -6493,10 +6493,10 @@
         <v>8</v>
       </c>
       <c r="D253" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E253" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -6513,10 +6513,10 @@
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E254" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F254">
         <v>6</v>
@@ -6533,10 +6533,10 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E255" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F255">
         <v>3</v>
@@ -6553,10 +6553,10 @@
         <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E256" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -6573,10 +6573,10 @@
         <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E257" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -6593,10 +6593,10 @@
         <v>8</v>
       </c>
       <c r="D258" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E258" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -6613,10 +6613,10 @@
         <v>8</v>
       </c>
       <c r="D259" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E259" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F259">
         <v>3</v>
@@ -6633,10 +6633,10 @@
         <v>7</v>
       </c>
       <c r="D260" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E260" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F260">
         <v>5</v>
@@ -6653,10 +6653,10 @@
         <v>8</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E261" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -6673,10 +6673,10 @@
         <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E262" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F262">
         <v>6</v>
@@ -6693,10 +6693,10 @@
         <v>8</v>
       </c>
       <c r="D263" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E263" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -6713,10 +6713,10 @@
         <v>8</v>
       </c>
       <c r="D264" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E264" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F264">
         <v>3</v>
@@ -6733,10 +6733,10 @@
         <v>7</v>
       </c>
       <c r="D265" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E265" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F265">
         <v>5</v>
@@ -6753,10 +6753,10 @@
         <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F266">
         <v>6</v>
@@ -6773,10 +6773,10 @@
         <v>7</v>
       </c>
       <c r="D267" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E267" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F267">
         <v>7</v>
@@ -6793,10 +6793,10 @@
         <v>7</v>
       </c>
       <c r="D268" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E268" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F268">
         <v>6</v>
@@ -6813,10 +6813,10 @@
         <v>7</v>
       </c>
       <c r="D269" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E269" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F269">
         <v>5</v>
@@ -6833,10 +6833,10 @@
         <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E270" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F270">
         <v>3</v>
@@ -6853,10 +6853,10 @@
         <v>8</v>
       </c>
       <c r="D271" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E271" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -6873,10 +6873,10 @@
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E272" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F272">
         <v>4</v>
@@ -6893,10 +6893,10 @@
         <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E273" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F273">
         <v>5</v>
@@ -6913,10 +6913,10 @@
         <v>8</v>
       </c>
       <c r="D274" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E274" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F274">
         <v>4</v>
@@ -6933,10 +6933,10 @@
         <v>8</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E275" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F275">
         <v>3</v>
@@ -6953,10 +6953,10 @@
         <v>7</v>
       </c>
       <c r="D276" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E276" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F276">
         <v>6</v>
@@ -6973,10 +6973,10 @@
         <v>8</v>
       </c>
       <c r="D277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E277" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F277">
         <v>2</v>
@@ -6993,10 +6993,10 @@
         <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E278" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F278">
         <v>7</v>
@@ -7013,10 +7013,10 @@
         <v>8</v>
       </c>
       <c r="D279" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E279" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -7033,10 +7033,10 @@
         <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E280" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F280">
         <v>5</v>
@@ -7053,10 +7053,10 @@
         <v>8</v>
       </c>
       <c r="D281" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -7073,10 +7073,10 @@
         <v>8</v>
       </c>
       <c r="D282" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E282" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F282">
         <v>2</v>
@@ -7093,10 +7093,10 @@
         <v>7</v>
       </c>
       <c r="D283" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E283" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F283">
         <v>6</v>
@@ -7113,10 +7113,10 @@
         <v>8</v>
       </c>
       <c r="D284" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E284" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F284">
         <v>3</v>
@@ -7133,10 +7133,10 @@
         <v>7</v>
       </c>
       <c r="D285" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E285" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F285">
         <v>6</v>
@@ -7153,10 +7153,10 @@
         <v>7</v>
       </c>
       <c r="D286" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E286" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F286">
         <v>6</v>
@@ -7173,10 +7173,10 @@
         <v>8</v>
       </c>
       <c r="D287" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E287" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F287">
         <v>3</v>
@@ -7193,10 +7193,10 @@
         <v>7</v>
       </c>
       <c r="D288" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E288" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F288">
         <v>5</v>
@@ -7213,10 +7213,10 @@
         <v>7</v>
       </c>
       <c r="D289" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E289" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F289">
         <v>5</v>
@@ -7233,10 +7233,10 @@
         <v>8</v>
       </c>
       <c r="D290" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E290" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F290">
         <v>3</v>
@@ -7253,10 +7253,10 @@
         <v>8</v>
       </c>
       <c r="D291" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E291" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F291">
         <v>3</v>
@@ -7273,10 +7273,10 @@
         <v>7</v>
       </c>
       <c r="D292" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E292" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F292">
         <v>7</v>
@@ -7293,10 +7293,10 @@
         <v>8</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E293" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -7313,10 +7313,10 @@
         <v>8</v>
       </c>
       <c r="D294" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E294" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F294">
         <v>2</v>
@@ -7333,10 +7333,10 @@
         <v>7</v>
       </c>
       <c r="D295" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E295" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F295">
         <v>5</v>
@@ -7353,10 +7353,10 @@
         <v>7</v>
       </c>
       <c r="D296" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E296" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F296">
         <v>5</v>
@@ -7373,10 +7373,10 @@
         <v>8</v>
       </c>
       <c r="D297" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E297" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F297">
         <v>2</v>
@@ -7393,10 +7393,10 @@
         <v>8</v>
       </c>
       <c r="D298" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E298" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F298">
         <v>3</v>
@@ -7413,10 +7413,10 @@
         <v>7</v>
       </c>
       <c r="D299" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E299" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F299">
         <v>7</v>
@@ -7433,10 +7433,10 @@
         <v>8</v>
       </c>
       <c r="D300" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E300" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F300">
         <v>3</v>
@@ -7453,10 +7453,10 @@
         <v>7</v>
       </c>
       <c r="D301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E301" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F301">
         <v>4</v>
@@ -7473,10 +7473,10 @@
         <v>7</v>
       </c>
       <c r="D302" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E302" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F302">
         <v>5</v>
@@ -7493,10 +7493,10 @@
         <v>8</v>
       </c>
       <c r="D303" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E303" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F303">
         <v>3</v>
@@ -7513,10 +7513,10 @@
         <v>7</v>
       </c>
       <c r="D304" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E304" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F304">
         <v>7</v>
@@ -7533,10 +7533,10 @@
         <v>7</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E305" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F305">
         <v>6</v>
@@ -7553,10 +7553,10 @@
         <v>8</v>
       </c>
       <c r="D306" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E306" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F306">
         <v>3</v>
@@ -7573,10 +7573,10 @@
         <v>8</v>
       </c>
       <c r="D307" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E307" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F307">
         <v>3</v>
@@ -7593,10 +7593,10 @@
         <v>8</v>
       </c>
       <c r="D308" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E308" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F308">
         <v>3</v>
@@ -7613,10 +7613,10 @@
         <v>7</v>
       </c>
       <c r="D309" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E309" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F309">
         <v>5</v>
@@ -7633,10 +7633,10 @@
         <v>8</v>
       </c>
       <c r="D310" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E310" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -7653,10 +7653,10 @@
         <v>7</v>
       </c>
       <c r="D311" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E311" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F311">
         <v>5</v>
@@ -7673,10 +7673,10 @@
         <v>7</v>
       </c>
       <c r="D312" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E312" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F312">
         <v>5</v>
@@ -7693,10 +7693,10 @@
         <v>8</v>
       </c>
       <c r="D313" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E313" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F313">
         <v>2</v>
@@ -7713,10 +7713,10 @@
         <v>8</v>
       </c>
       <c r="D314" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E314" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F314">
         <v>3</v>
@@ -7733,10 +7733,10 @@
         <v>7</v>
       </c>
       <c r="D315" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E315" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F315">
         <v>7</v>
@@ -7753,10 +7753,10 @@
         <v>8</v>
       </c>
       <c r="D316" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E316" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -7773,10 +7773,10 @@
         <v>8</v>
       </c>
       <c r="D317" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E317" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -7793,10 +7793,10 @@
         <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E318" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F318">
         <v>5</v>
@@ -7813,10 +7813,10 @@
         <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E319" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F319">
         <v>5</v>
@@ -7833,10 +7833,10 @@
         <v>8</v>
       </c>
       <c r="D320" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E320" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F320">
         <v>3</v>
@@ -7853,10 +7853,10 @@
         <v>8</v>
       </c>
       <c r="D321" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E321" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F321">
         <v>2</v>
@@ -7873,10 +7873,10 @@
         <v>7</v>
       </c>
       <c r="D322" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E322" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F322">
         <v>5</v>
@@ -7893,10 +7893,10 @@
         <v>7</v>
       </c>
       <c r="D323" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E323" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F323">
         <v>6</v>
@@ -7913,10 +7913,10 @@
         <v>8</v>
       </c>
       <c r="D324" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E324" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F324">
         <v>2</v>
